--- a/docs/gcms/gcms-metadata.xlsx
+++ b/docs/gcms/gcms-metadata.xlsx
@@ -249,7 +249,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>The ion source type used for surface sampling (MALDI, MALDI-2, DESI, or SIMS) or LC-MS/MS data acquisition (nESI)</t>
+          <t>The ion source type used for surface sampling.</t>
         </r>
       </text>
     </comment>

--- a/docs/gcms/gcms-metadata.xlsx
+++ b/docs/gcms/gcms-metadata.xlsx
@@ -431,7 +431,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Unit for GC column length (typically cm)</t>
+          <t>Unit for GC column length</t>
         </r>
       </text>
     </comment>
@@ -661,7 +661,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="74">
   <si>
     <t>version</t>
   </si>
@@ -699,7 +699,7 @@
     <t>assay_category</t>
   </si>
   <si>
-    <t>mass_spectrometry_imaging</t>
+    <t>mass_spectrometry</t>
   </si>
   <si>
     <t>assay_type</t>
@@ -742,6 +742,9 @@
   </si>
   <si>
     <t>nESI</t>
+  </si>
+  <si>
+    <t>EI</t>
   </si>
   <si>
     <t>polarity</t>
@@ -1290,97 +1293,97 @@
         <v>21</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AB1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AS1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AC1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="AT1" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1388,7 +1391,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: 1." sqref="A2:A1048576">
       <formula1>'version list'!$A$1:$A$1</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: mass_spectrometry_imaging." sqref="K2:K1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: mass_spectrometry." sqref="K2:K1048576">
       <formula1>'assay_category list'!$A$1:$A$1</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: GC-MS." sqref="L2:L1048576">
@@ -1400,8 +1403,8 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a boolean" error="The values in this column must be &quot;TRUE&quot; or &quot;FALSE&quot;." sqref="N2:N1048576">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: MALDI / MALDI-2 / DESI / SIMS / nESI." sqref="Q2:Q1048576">
-      <formula1>'ms_source list'!$A$1:$A$5</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must come from ms_source list." sqref="Q2:Q1048576">
+      <formula1>'ms_source list'!$A$1:$A$6</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: negative ion mode / positive ion mode." sqref="R2:R1048576">
       <formula1>'polarity list'!$A$1:$A$2</formula1>
@@ -1475,7 +1478,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1493,17 +1496,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1521,12 +1524,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1544,12 +1547,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1567,12 +1570,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1659,7 +1662,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1688,6 +1691,11 @@
     <row r="5" spans="1:1">
       <c r="A5" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1705,12 +1713,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1728,27 +1736,27 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1766,7 +1774,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/docs/gcms/gcms-metadata.xlsx
+++ b/docs/gcms/gcms-metadata.xlsx
@@ -210,7 +210,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Specifies whether or not a specific molecule(s) is/are targeted for detection/measurement by the assay. The CODEX analyte is protein.</t>
+          <t>Specifies whether or not a specific molecule(s) is/are targeted for detection/measurement by the assay.</t>
         </r>
       </text>
     </comment>

--- a/docs/gcms/gcms-metadata.xlsx
+++ b/docs/gcms/gcms-metadata.xlsx
@@ -314,7 +314,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>The peak (m/z) used to calculate the MS1 resolving power.</t>
+          <t>The peak (m/z) used to calculate the resolving power.</t>
         </r>
       </text>
     </comment>
@@ -509,7 +509,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Specifies whether or not the analysis was performed in a spatialy targeted manner and the technique used for spatial sampling. For example, Laser-capture microdissection (LCM), Liquid Extraction Surface Analysis (LESA), Nanodroplet Processing in One pot for Trace Samples (nanoPOTS). Leave blank if not applicable.</t>
+          <t>Specifies whether or not the analysis was performed in a spatialy targeted manner and the technique used for spatial sampling. For example, Laser-capture microdissection (LCM), Liquid Extraction Surface Analysis (LESA), Nanodroplet Processing in One pot for Trace Samples (nanoPOTS).</t>
         </r>
       </text>
     </comment>
@@ -661,7 +661,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="75">
   <si>
     <t>version</t>
   </si>
@@ -783,7 +783,7 @@
     <t>DTIMS</t>
   </si>
   <si>
-    <t>SLIM</t>
+    <t>SLIMS</t>
   </si>
   <si>
     <t>data_collection_mode</t>
@@ -838,6 +838,9 @@
   </si>
   <si>
     <t>LESA</t>
+  </si>
+  <si>
+    <t>nanoPOTS</t>
   </si>
   <si>
     <t>microLESA</t>
@@ -1353,37 +1356,37 @@
         <v>56</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AS1" s="1" t="s">
         <v>44</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1425,7 +1428,7 @@
       <formula1>-1e+307</formula1>
       <formula2>1e+307</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: TIMS / TWIMS / FAIMS / DTIMS / SLIM." sqref="W2:W1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: TIMS / TWIMS / FAIMS / DTIMS / SLIMS." sqref="W2:W1048576">
       <formula1>'ion_mobility list'!$A$1:$A$5</formula1>
     </dataValidation>
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="AD2:AD1048576">
@@ -1442,8 +1445,8 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: C." sqref="AG2:AG1048576">
       <formula1>'column_temp_unit list'!$A$1:$A$1</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: LCM / LESA / microLESA." sqref="AK2:AK1048576">
-      <formula1>'spatial_type list'!$A$1:$A$3</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: LCM / LESA / nanoPOTS / microLESA." sqref="AK2:AK1048576">
+      <formula1>'spatial_type list'!$A$1:$A$4</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: profiling / imaging." sqref="AL2:AL1048576">
       <formula1>'spatial_sampling_type list'!$A$1:$A$2</formula1>
@@ -1488,7 +1491,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1507,6 +1510,11 @@
     <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1524,12 +1532,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1547,12 +1555,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1570,12 +1578,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/docs/gcms/gcms-metadata.xlsx
+++ b/docs/gcms/gcms-metadata.xlsx
@@ -210,7 +210,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Specifies whether or not a specific molecule(s) is/are targeted for detection/measurement by the assay. The CODEX analyte is protein.</t>
+          <t>Specifies whether or not a specific molecule(s) is/are targeted for detection/measurement by the assay.</t>
         </r>
       </text>
     </comment>
@@ -314,7 +314,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>The peak (m/z) used to calculate the MS1 resolving power.</t>
+          <t>The peak (m/z) used to calculate the resolving power.</t>
         </r>
       </text>
     </comment>
@@ -509,7 +509,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Specifies whether or not the analysis was performed in a spatialy targeted manner and the technique used for spatial sampling. For example, Laser-capture microdissection (LCM), Liquid Extraction Surface Analysis (LESA), Nanodroplet Processing in One pot for Trace Samples (nanoPOTS). Leave blank if not applicable.</t>
+          <t>Specifies whether or not the analysis was performed in a spatialy targeted manner and the technique used for spatial sampling. For example, Laser-capture microdissection (LCM), Liquid Extraction Surface Analysis (LESA), Nanodroplet Processing in One pot for Trace Samples (nanoPOTS).</t>
         </r>
       </text>
     </comment>
@@ -661,7 +661,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="75">
   <si>
     <t>version</t>
   </si>
@@ -783,7 +783,7 @@
     <t>DTIMS</t>
   </si>
   <si>
-    <t>SLIM</t>
+    <t>SLIMS</t>
   </si>
   <si>
     <t>data_collection_mode</t>
@@ -838,6 +838,9 @@
   </si>
   <si>
     <t>LESA</t>
+  </si>
+  <si>
+    <t>nanoPOTS</t>
   </si>
   <si>
     <t>microLESA</t>
@@ -1353,37 +1356,37 @@
         <v>56</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AS1" s="1" t="s">
         <v>44</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1425,7 +1428,7 @@
       <formula1>-1e+307</formula1>
       <formula2>1e+307</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: TIMS / TWIMS / FAIMS / DTIMS / SLIM." sqref="W2:W1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: TIMS / TWIMS / FAIMS / DTIMS / SLIMS." sqref="W2:W1048576">
       <formula1>'ion_mobility list'!$A$1:$A$5</formula1>
     </dataValidation>
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="AD2:AD1048576">
@@ -1442,8 +1445,8 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: C." sqref="AG2:AG1048576">
       <formula1>'column_temp_unit list'!$A$1:$A$1</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: LCM / LESA / microLESA." sqref="AK2:AK1048576">
-      <formula1>'spatial_type list'!$A$1:$A$3</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: LCM / LESA / nanoPOTS / microLESA." sqref="AK2:AK1048576">
+      <formula1>'spatial_type list'!$A$1:$A$4</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: profiling / imaging." sqref="AL2:AL1048576">
       <formula1>'spatial_sampling_type list'!$A$1:$A$2</formula1>
@@ -1488,7 +1491,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1507,6 +1510,11 @@
     <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1524,12 +1532,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1547,12 +1555,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1570,12 +1578,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/docs/gcms/gcms-metadata.xlsx
+++ b/docs/gcms/gcms-metadata.xlsx
@@ -340,7 +340,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Mode of data collection in tandem MS assays. Either DDA (Data-dependent acquisition) or DIA (Data-indemendent acquisition.</t>
+          <t>Mode of data collection in tandem MS assays. Either DDA (Data-dependent acquisition) or DIA (Data-independent acquisition).</t>
         </r>
       </text>
     </comment>

--- a/docs/gcms/gcms-metadata.xlsx
+++ b/docs/gcms/gcms-metadata.xlsx
@@ -12,15 +12,16 @@
     <sheet name="assay_category list" sheetId="3" r:id="rId3"/>
     <sheet name="assay_type list" sheetId="4" r:id="rId4"/>
     <sheet name="analyte_class list" sheetId="5" r:id="rId5"/>
-    <sheet name="ms_source list" sheetId="6" r:id="rId6"/>
-    <sheet name="polarity list" sheetId="7" r:id="rId7"/>
-    <sheet name="ion_mobility list" sheetId="8" r:id="rId8"/>
-    <sheet name="column_length_unit list" sheetId="9" r:id="rId9"/>
-    <sheet name="column_temp_unit list" sheetId="10" r:id="rId10"/>
-    <sheet name="spatial_type list" sheetId="11" r:id="rId11"/>
-    <sheet name="spatial_sampling_type list" sheetId="12" r:id="rId12"/>
-    <sheet name="resolution_x_unit list" sheetId="13" r:id="rId13"/>
-    <sheet name="resolution_y_unit list" sheetId="14" r:id="rId14"/>
+    <sheet name="is_targeted list" sheetId="6" r:id="rId6"/>
+    <sheet name="ms_source list" sheetId="7" r:id="rId7"/>
+    <sheet name="polarity list" sheetId="8" r:id="rId8"/>
+    <sheet name="ion_mobility list" sheetId="9" r:id="rId9"/>
+    <sheet name="column_length_unit list" sheetId="10" r:id="rId10"/>
+    <sheet name="column_temp_unit list" sheetId="11" r:id="rId11"/>
+    <sheet name="spatial_type list" sheetId="12" r:id="rId12"/>
+    <sheet name="spatial_sampling_type list" sheetId="13" r:id="rId13"/>
+    <sheet name="resolution_x_unit list" sheetId="14" r:id="rId14"/>
+    <sheet name="resolution_y_unit list" sheetId="15" r:id="rId15"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -661,7 +662,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="77">
   <si>
     <t>version</t>
   </si>
@@ -718,6 +719,12 @@
   </si>
   <si>
     <t>is_targeted</t>
+  </si>
+  <si>
+    <t>TRUE</t>
+  </si>
+  <si>
+    <t>FALSE</t>
   </si>
   <si>
     <t>acquisition_instrument_vendor</t>
@@ -1287,106 +1294,106 @@
         <v>18</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="AC1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AS1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AD1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="AT1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1403,8 +1410,8 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: metabolites / lipids." sqref="M2:M1048576">
       <formula1>'analyte_class list'!$A$1:$A$2</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a boolean" error="The values in this column must be &quot;TRUE&quot; or &quot;FALSE&quot;." sqref="N2:N1048576">
-      <formula1>"TRUE,FALSE"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: TRUE / FALSE." sqref="N2:N1048576">
+      <formula1>'is_targeted list'!$A$1:$A$2</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must come from ms_source list." sqref="Q2:Q1048576">
       <formula1>'ms_source list'!$A$1:$A$6</formula1>
@@ -1481,7 +1488,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1490,6 +1497,24 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A4"/>
   <sheetViews>
@@ -1499,45 +1524,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1555,12 +1557,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1578,12 +1580,35 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>68</v>
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1670,6 +1695,29 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1678,32 +1726,32 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1711,7 +1759,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -1721,12 +1769,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1734,7 +1782,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A5"/>
   <sheetViews>
@@ -1744,45 +1792,27 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/docs/gcms/gcms-metadata.xlsx
+++ b/docs/gcms/gcms-metadata.xlsx
@@ -171,7 +171,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Each assay is placed into one of the following 3 general categories: generation of images of microscopic entities, identification &amp; quantitation of molecules by mass spectrometry, and determination of nucleotide sequence.</t>
+          <t>Each assay is placed into one of the following 4 general categories: generation of images of microscopic entities, identification &amp; quantitation of molecules by mass spectrometry, imaging mass spectrometry, and determination of nucleotide sequence.</t>
         </r>
       </text>
     </comment>

--- a/docs/gcms/gcms-metadata.xlsx
+++ b/docs/gcms/gcms-metadata.xlsx
@@ -661,7 +661,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="76">
   <si>
     <t>version</t>
   </si>
@@ -754,6 +754,9 @@
   </si>
   <si>
     <t>positive ion mode</t>
+  </si>
+  <si>
+    <t>negative and positive ion mode</t>
   </si>
   <si>
     <t>mz_range_low_value</t>
@@ -1299,94 +1302,94 @@
         <v>28</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AB1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AS1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AC1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="AT1" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1409,8 +1412,8 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must come from ms_source list." sqref="Q2:Q1048576">
       <formula1>'ms_source list'!$A$1:$A$6</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: negative ion mode / positive ion mode." sqref="R2:R1048576">
-      <formula1>'polarity list'!$A$1:$A$2</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: negative ion mode / positive ion mode / negative and positive ion mode." sqref="R2:R1048576">
+      <formula1>'polarity list'!$A$1:$A$3</formula1>
     </dataValidation>
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="S2:S1048576">
       <formula1>-1e+307</formula1>
@@ -1481,7 +1484,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1499,22 +1502,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1532,12 +1535,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1555,12 +1558,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1578,12 +1581,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1713,7 +1716,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1727,6 +1730,11 @@
     <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1744,27 +1752,27 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1782,7 +1790,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/docs/gcms/gcms-metadata.xlsx
+++ b/docs/gcms/gcms-metadata.xlsx
@@ -15,12 +15,13 @@
     <sheet name="ms_source list" sheetId="6" r:id="rId6"/>
     <sheet name="polarity list" sheetId="7" r:id="rId7"/>
     <sheet name="ion_mobility list" sheetId="8" r:id="rId8"/>
-    <sheet name="column_length_unit list" sheetId="9" r:id="rId9"/>
-    <sheet name="column_temp_unit list" sheetId="10" r:id="rId10"/>
-    <sheet name="spatial_type list" sheetId="11" r:id="rId11"/>
-    <sheet name="spatial_sampling_type list" sheetId="12" r:id="rId12"/>
-    <sheet name="resolution_x_unit list" sheetId="13" r:id="rId13"/>
-    <sheet name="resolution_y_unit list" sheetId="14" r:id="rId14"/>
+    <sheet name="data_collection_mode list" sheetId="9" r:id="rId9"/>
+    <sheet name="column_length_unit list" sheetId="10" r:id="rId10"/>
+    <sheet name="column_temp_unit list" sheetId="11" r:id="rId11"/>
+    <sheet name="spatial_type list" sheetId="12" r:id="rId12"/>
+    <sheet name="spatial_sampling_type list" sheetId="13" r:id="rId13"/>
+    <sheet name="resolution_x_unit list" sheetId="14" r:id="rId14"/>
+    <sheet name="resolution_y_unit list" sheetId="15" r:id="rId15"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -661,7 +662,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="78">
   <si>
     <t>version</t>
   </si>
@@ -790,6 +791,12 @@
   </si>
   <si>
     <t>data_collection_mode</t>
+  </si>
+  <si>
+    <t>DDA</t>
+  </si>
+  <si>
+    <t>DIA</t>
   </si>
   <si>
     <t>ms_scan_mode</t>
@@ -1320,80 +1327,80 @@
         <v>42</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AC1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AD1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="AT1" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="22">
+  <dataValidations count="23">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: 1." sqref="A2:A1048576">
       <formula1>'version list'!$A$1:$A$1</formula1>
     </dataValidation>
@@ -1433,6 +1440,9 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: TIMS / TWIMS / FAIMS / DTIMS / SLIMS." sqref="W2:W1048576">
       <formula1>'ion_mobility list'!$A$1:$A$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: DDA / DIA." sqref="X2:X1048576">
+      <formula1>'data_collection_mode list'!$A$1:$A$2</formula1>
     </dataValidation>
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="AD2:AD1048576">
       <formula1>-1e+307</formula1>
@@ -1484,7 +1494,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1493,6 +1503,24 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A4"/>
   <sheetViews>
@@ -1502,45 +1530,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1558,12 +1563,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1581,12 +1586,35 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>69</v>
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1782,7 +1810,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1790,7 +1818,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>50</v>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/docs/gcms/gcms-metadata.xlsx
+++ b/docs/gcms/gcms-metadata.xlsx
@@ -341,7 +341,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Mode of data collection in tandem MS assays. Either DDA (Data-dependent acquisition) or DIA (Data-independent acquisition).</t>
+          <t>Mode of data collection in tandem MS assays. Either DDA (Data-dependent acquisition), DIA (Data-independent acquisition), MRM (multiple reaction monitoring), or PRM (parallel reaction monitoring).</t>
         </r>
       </text>
     </comment>
@@ -662,7 +662,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="80">
   <si>
     <t>version</t>
   </si>
@@ -797,6 +797,12 @@
   </si>
   <si>
     <t>DIA</t>
+  </si>
+  <si>
+    <t>MRM</t>
+  </si>
+  <si>
+    <t>PRM</t>
   </si>
   <si>
     <t>ms_scan_mode</t>
@@ -1327,76 +1333,76 @@
         <v>42</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AC1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AS1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AD1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="AT1" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1441,8 +1447,8 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: TIMS / TWIMS / FAIMS / DTIMS / SLIMS." sqref="W2:W1048576">
       <formula1>'ion_mobility list'!$A$1:$A$5</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: DDA / DIA." sqref="X2:X1048576">
-      <formula1>'data_collection_mode list'!$A$1:$A$2</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: DDA / DIA / MRM / PRM." sqref="X2:X1048576">
+      <formula1>'data_collection_mode list'!$A$1:$A$4</formula1>
     </dataValidation>
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="AD2:AD1048576">
       <formula1>-1e+307</formula1>
@@ -1494,7 +1500,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1512,7 +1518,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1530,22 +1536,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1563,12 +1569,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1586,12 +1592,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1609,12 +1615,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1810,7 +1816,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1826,6 +1832,16 @@
         <v>44</v>
       </c>
     </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>46</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/gcms/gcms-metadata.xlsx
+++ b/docs/gcms/gcms-metadata.xlsx
@@ -15,12 +15,13 @@
     <sheet name="ms_source list" sheetId="6" r:id="rId6"/>
     <sheet name="polarity list" sheetId="7" r:id="rId7"/>
     <sheet name="ion_mobility list" sheetId="8" r:id="rId8"/>
-    <sheet name="column_length_unit list" sheetId="9" r:id="rId9"/>
-    <sheet name="column_temp_unit list" sheetId="10" r:id="rId10"/>
-    <sheet name="spatial_type list" sheetId="11" r:id="rId11"/>
-    <sheet name="spatial_sampling_type list" sheetId="12" r:id="rId12"/>
-    <sheet name="resolution_x_unit list" sheetId="13" r:id="rId13"/>
-    <sheet name="resolution_y_unit list" sheetId="14" r:id="rId14"/>
+    <sheet name="data_collection_mode list" sheetId="9" r:id="rId9"/>
+    <sheet name="column_length_unit list" sheetId="10" r:id="rId10"/>
+    <sheet name="column_temp_unit list" sheetId="11" r:id="rId11"/>
+    <sheet name="spatial_type list" sheetId="12" r:id="rId12"/>
+    <sheet name="spatial_sampling_type list" sheetId="13" r:id="rId13"/>
+    <sheet name="resolution_x_unit list" sheetId="14" r:id="rId14"/>
+    <sheet name="resolution_y_unit list" sheetId="15" r:id="rId15"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -340,7 +341,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Mode of data collection in tandem MS assays. Either DDA (Data-dependent acquisition) or DIA (Data-independent acquisition).</t>
+          <t>Mode of data collection in tandem MS assays. Either DDA (Data-dependent acquisition), DIA (Data-independent acquisition), MRM (multiple reaction monitoring), or PRM (parallel reaction monitoring).</t>
         </r>
       </text>
     </comment>
@@ -661,7 +662,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="80">
   <si>
     <t>version</t>
   </si>
@@ -790,6 +791,18 @@
   </si>
   <si>
     <t>data_collection_mode</t>
+  </si>
+  <si>
+    <t>DDA</t>
+  </si>
+  <si>
+    <t>DIA</t>
+  </si>
+  <si>
+    <t>MRM</t>
+  </si>
+  <si>
+    <t>PRM</t>
   </si>
   <si>
     <t>ms_scan_mode</t>
@@ -1320,80 +1333,80 @@
         <v>42</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="AE1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AS1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AF1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="AT1" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="22">
+  <dataValidations count="23">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: 1." sqref="A2:A1048576">
       <formula1>'version list'!$A$1:$A$1</formula1>
     </dataValidation>
@@ -1433,6 +1446,9 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: TIMS / TWIMS / FAIMS / DTIMS / SLIMS." sqref="W2:W1048576">
       <formula1>'ion_mobility list'!$A$1:$A$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: DDA / DIA / MRM / PRM." sqref="X2:X1048576">
+      <formula1>'data_collection_mode list'!$A$1:$A$4</formula1>
     </dataValidation>
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="AD2:AD1048576">
       <formula1>-1e+307</formula1>
@@ -1484,7 +1500,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1493,6 +1509,24 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A4"/>
   <sheetViews>
@@ -1502,45 +1536,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1558,12 +1569,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1581,12 +1592,35 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>69</v>
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1782,7 +1816,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1790,7 +1824,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>50</v>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
